--- a/01 计划阶段/05 项目实施进度简表/项目实施进度简表 - 模板.xlsx
+++ b/01 计划阶段/05 项目实施进度简表/项目实施进度简表 - 模板.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10308"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E739BF-6613-0D43-BDEE-29D4EA2934FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E8AC97-EB55-0B43-B502-A6D622AD5061}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="460" windowWidth="19040" windowHeight="11960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -529,7 +529,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -556,7 +556,7 @@
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="27" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
@@ -568,7 +568,7 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:8" ht="15">
+    <row r="3" spans="1:8" ht="27" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
@@ -584,7 +584,7 @@
       </c>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" ht="27" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
